--- a/SeleniumProject/Excel/LoginData.xlsx
+++ b/SeleniumProject/Excel/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ACE8E02C-260C-4E3D-A9A7-BA0150647758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6147044D-771C-4213-A680-AB261568ABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1FE42DC3-A2A0-42E0-82B0-2341CD6FCAAD}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>srikar</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>sdkjnfvnj</t>
   </si>
   <si>
     <t>324t24g</t>
@@ -422,7 +416,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,18 +447,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
